--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value9.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value9.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.846177658712946</v>
+        <v>3.133750915527344</v>
       </c>
       <c r="B1">
-        <v>2.343301872875549</v>
+        <v>6.350811958312988</v>
       </c>
       <c r="C1">
-        <v>2.366483910789009</v>
+        <v>6.063872814178467</v>
       </c>
       <c r="D1">
-        <v>1.029736097870678</v>
+        <v>6.477526187896729</v>
       </c>
       <c r="E1">
-        <v>0.5129985366254975</v>
+        <v>5.340754508972168</v>
       </c>
     </row>
   </sheetData>
